--- a/04Datasets/ejemploCalificacionesExcel.xlsx
+++ b/04Datasets/ejemploCalificacionesExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\APEREZN2023\01-Formacion\03TercerTrimestre2023\MachineLearning - 2501259 - ADSO\05-MaterialEducativo\CienciaDatosSENAV02\02-ExploracionDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\APEREZN2025\FormacionSENA\04CuartoTrimestre2025\BD_ML - 3010090 y 3010403 - ADSO\05-MaterialEducativo\04EntendimientoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A27B25-AB00-4F0B-9699-2F602B7B025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8042A7E-D078-4982-8838-B72071FA4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -705,7 +705,7 @@
         <v>2.36</v>
       </c>
       <c r="I8" s="3">
-        <v>3.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="3">
-        <v>4.0599999999999996</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
         <v>3.64</v>
@@ -1068,7 +1068,7 @@
         <v>4.05</v>
       </c>
       <c r="G21" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21" s="4">
         <v>3.7</v>
